--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207877.0689143998</v>
+        <v>205416.1526959564</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.3698596490253</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>319.9089097565522</v>
+        <v>319.9089097565521</v>
       </c>
       <c r="D11" t="n">
-        <v>309.3190596062277</v>
+        <v>309.3190596062276</v>
       </c>
       <c r="E11" t="n">
-        <v>336.5663880578065</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>361.5120637272561</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>365.8119104385899</v>
+        <v>365.8119104385898</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>251.8467681091841</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.011713299731412</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.61560571941739</v>
       </c>
       <c r="T11" t="n">
         <v>159.6666032903777</v>
       </c>
       <c r="U11" t="n">
-        <v>90.9216775987216</v>
+        <v>205.6515232884139</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>282.3882764556795</v>
       </c>
       <c r="W11" t="n">
         <v>303.8769867029577</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>324.3671186640137</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.8739566415983</v>
+        <v>327.3629401379668</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.2487280326119</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892849</v>
       </c>
       <c r="G12" t="n">
-        <v>135.1354603924896</v>
+        <v>89.77147837803425</v>
       </c>
       <c r="H12" t="n">
-        <v>90.91026437190153</v>
+        <v>45.54628235744615</v>
       </c>
       <c r="I12" t="n">
-        <v>23.49937276245676</v>
+        <v>23.49937276245677</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.586294988847754</v>
       </c>
       <c r="S12" t="n">
         <v>130.6694850336473</v>
       </c>
       <c r="T12" t="n">
-        <v>145.9007283808373</v>
+        <v>149.3939597891892</v>
       </c>
       <c r="U12" t="n">
-        <v>180.4321331737089</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>160.318713762849</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.467998167482</v>
+        <v>134.4679981674819</v>
       </c>
       <c r="C13" t="n">
-        <v>60.93684303772353</v>
+        <v>121.8828390841724</v>
       </c>
       <c r="D13" t="n">
         <v>103.251491003757</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0699806321139</v>
+        <v>101.0699806321138</v>
       </c>
       <c r="F13" t="n">
         <v>100.0570660084759</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7758367208652</v>
+        <v>13.84219534958045</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.4046896799913</v>
       </c>
       <c r="I13" t="n">
-        <v>54.41704435515429</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.69449625324313</v>
+        <v>48.69449625324309</v>
       </c>
       <c r="S13" t="n">
         <v>146.3919349810984</v>
@@ -1582,19 +1582,19 @@
         <v>174.6721029331445</v>
       </c>
       <c r="U13" t="n">
-        <v>240.8540749444099</v>
+        <v>240.8540749444098</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7736613093727</v>
+        <v>206.7736613093726</v>
       </c>
       <c r="W13" t="n">
-        <v>241.1590163221357</v>
+        <v>241.1590163221356</v>
       </c>
       <c r="X13" t="n">
         <v>180.3456733745818</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.2206713376395</v>
+        <v>173.2206713376394</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.3698596490253</v>
+        <v>295.8080431025964</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>319.9089097565521</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>336.5663880578065</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.3963108717342</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>365.8119104385899</v>
+        <v>365.8119104385898</v>
       </c>
       <c r="H14" t="n">
-        <v>251.8467681091842</v>
+        <v>251.8467681091841</v>
       </c>
       <c r="I14" t="n">
-        <v>6.011713299731454</v>
+        <v>6.011713299731412</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.61560571941739</v>
       </c>
       <c r="T14" t="n">
-        <v>159.6666032903777</v>
+        <v>159.6666032903776</v>
       </c>
       <c r="U14" t="n">
-        <v>205.651523288414</v>
+        <v>205.6515232884139</v>
       </c>
       <c r="V14" t="n">
-        <v>282.3882764556796</v>
+        <v>282.3882764556795</v>
       </c>
       <c r="W14" t="n">
         <v>303.8769867029577</v>
@@ -1673,7 +1673,7 @@
         <v>324.3671186640137</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.8739566415983</v>
+        <v>340.8739566415982</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>121.169201635412</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>112.2810984409456</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>99.70523037892849</v>
       </c>
       <c r="G15" t="n">
-        <v>89.77147837803432</v>
+        <v>135.1354603924896</v>
       </c>
       <c r="H15" t="n">
-        <v>45.54628235744622</v>
+        <v>90.91026437190153</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.49937276245677</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.586294988847754</v>
       </c>
       <c r="S15" t="n">
-        <v>85.305503019192</v>
+        <v>130.6694850336473</v>
       </c>
       <c r="T15" t="n">
-        <v>145.9007283808373</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U15" t="n">
-        <v>216.0110323333659</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>190.9298365433219</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>160.4090031890221</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.7858477999535</v>
+        <v>134.4679981674819</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8828390841725</v>
+        <v>121.8828390841724</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.251491003757</v>
       </c>
       <c r="E16" t="n">
-        <v>101.0699806321139</v>
+        <v>101.0699806321138</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0570660084759</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7758367208652</v>
+        <v>120.7758367208651</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4046896799914</v>
+        <v>87.80556621527228</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.41704435515424</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.69449625324313</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>146.3919349810984</v>
@@ -1819,19 +1819,19 @@
         <v>174.6721029331445</v>
       </c>
       <c r="U16" t="n">
-        <v>240.8540749444099</v>
+        <v>240.8540749444098</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7736613093727</v>
+        <v>206.7736613093726</v>
       </c>
       <c r="W16" t="n">
-        <v>241.1590163221357</v>
+        <v>241.1590163221356</v>
       </c>
       <c r="X16" t="n">
         <v>180.3456733745818</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.2206713376395</v>
+        <v>173.2206713376394</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>272.9337731379597</v>
       </c>
       <c r="D17" t="n">
-        <v>262.3439229876351</v>
+        <v>195.8849948299382</v>
       </c>
       <c r="E17" t="n">
         <v>289.5912514392139</v>
@@ -1856,7 +1856,7 @@
         <v>314.5369271086636</v>
       </c>
       <c r="G17" t="n">
-        <v>318.8367738199973</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>204.8716314905916</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>22.64046910082486</v>
+        <v>22.64046910082494</v>
       </c>
       <c r="T17" t="n">
-        <v>21.29458471709917</v>
+        <v>112.6914666717852</v>
       </c>
       <c r="U17" t="n">
         <v>158.6763866698215</v>
@@ -1910,7 +1910,7 @@
         <v>277.3919820454212</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>293.8988200230057</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>74.19406501681947</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>65.30596182235307</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>106.4207709955534</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79634175944176</v>
+        <v>135.1354603924896</v>
       </c>
       <c r="H18" t="n">
-        <v>90.91026437190152</v>
+        <v>90.91026437190155</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.4993727624568</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.586294988847669</v>
+        <v>8.586294988847811</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6694850336473</v>
+        <v>130.6694850336474</v>
       </c>
       <c r="T18" t="n">
-        <v>176.1156417599219</v>
+        <v>191.2647103952927</v>
       </c>
       <c r="U18" t="n">
-        <v>133.4569965551163</v>
+        <v>225.7961151881642</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2017,10 +2017,10 @@
         <v>73.80070010227263</v>
       </c>
       <c r="H19" t="n">
-        <v>53.42955306139882</v>
+        <v>53.42955306139883</v>
       </c>
       <c r="I19" t="n">
-        <v>7.441907736561724</v>
+        <v>7.441907736561774</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.719359634650559</v>
+        <v>1.71935963465063</v>
       </c>
       <c r="S19" t="n">
-        <v>99.41679836250589</v>
+        <v>99.41679836250592</v>
       </c>
       <c r="T19" t="n">
         <v>127.696966314552</v>
@@ -2090,10 +2090,10 @@
         <v>289.5912514392139</v>
       </c>
       <c r="F20" t="n">
-        <v>314.5369271086636</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>318.8367738199973</v>
       </c>
       <c r="H20" t="n">
         <v>204.8716314905916</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>22.64046910082489</v>
+        <v>22.64046910082494</v>
       </c>
       <c r="T20" t="n">
-        <v>46.23253851409053</v>
+        <v>112.6914666717852</v>
       </c>
       <c r="U20" t="n">
         <v>158.6763866698215</v>
       </c>
       <c r="V20" t="n">
-        <v>235.413139837087</v>
+        <v>164.6543649680556</v>
       </c>
       <c r="W20" t="n">
         <v>256.9018500843652</v>
@@ -2166,16 +2166,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4960118200272</v>
       </c>
       <c r="F21" t="n">
-        <v>138.5064387468597</v>
+        <v>52.730093760336</v>
       </c>
       <c r="G21" t="n">
         <v>135.1354603924896</v>
       </c>
       <c r="H21" t="n">
-        <v>90.91026437190153</v>
+        <v>90.91026437190155</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.586294988847811</v>
       </c>
       <c r="S21" t="n">
-        <v>130.6694850336473</v>
+        <v>130.6694850336474</v>
       </c>
       <c r="T21" t="n">
         <v>191.2647103952927</v>
@@ -2217,7 +2217,7 @@
         <v>225.7961151881642</v>
       </c>
       <c r="V21" t="n">
-        <v>140.4614685163774</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2257,7 +2257,7 @@
         <v>53.42955306139883</v>
       </c>
       <c r="I22" t="n">
-        <v>7.441907736561738</v>
+        <v>7.441907736561774</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.719359634650573</v>
+        <v>1.71935963465063</v>
       </c>
       <c r="S22" t="n">
-        <v>99.41679836250589</v>
+        <v>99.41679836250592</v>
       </c>
       <c r="T22" t="n">
         <v>127.696966314552</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.3947230304327</v>
+        <v>290.3947230304326</v>
       </c>
       <c r="C23" t="n">
-        <v>272.9337731379597</v>
+        <v>272.9337731379596</v>
       </c>
       <c r="D23" t="n">
-        <v>262.3439229876351</v>
+        <v>262.343922987635</v>
       </c>
       <c r="E23" t="n">
-        <v>289.5912514392139</v>
+        <v>289.5912514392138</v>
       </c>
       <c r="F23" t="n">
-        <v>314.5369271086636</v>
+        <v>314.5369271086635</v>
       </c>
       <c r="G23" t="n">
-        <v>318.5826070204056</v>
+        <v>318.5826070204055</v>
       </c>
       <c r="H23" t="n">
-        <v>202.2686457542726</v>
+        <v>202.2686457542725</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.84864315512797</v>
+        <v>16.8486431551279</v>
       </c>
       <c r="T23" t="n">
-        <v>111.5788515065723</v>
+        <v>111.5788515065722</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6560533258541</v>
+        <v>158.656053325854</v>
       </c>
       <c r="V23" t="n">
         <v>235.413139837087</v>
       </c>
       <c r="W23" t="n">
-        <v>256.9018500843652</v>
+        <v>256.901850084365</v>
       </c>
       <c r="X23" t="n">
-        <v>277.3919820454212</v>
+        <v>277.3919820454211</v>
       </c>
       <c r="Y23" t="n">
         <v>293.8988200230057</v>
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553999</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.49286154888942</v>
+        <v>87.49286154888935</v>
       </c>
       <c r="C25" t="n">
-        <v>74.90770246557996</v>
+        <v>74.90770246557989</v>
       </c>
       <c r="D25" t="n">
-        <v>56.27635438516448</v>
+        <v>56.27635438516441</v>
       </c>
       <c r="E25" t="n">
-        <v>54.0948440135213</v>
+        <v>54.09484401352123</v>
       </c>
       <c r="F25" t="n">
-        <v>53.08192938988337</v>
+        <v>53.0819293898833</v>
       </c>
       <c r="G25" t="n">
-        <v>73.68668962598035</v>
+        <v>73.68668962598028</v>
       </c>
       <c r="H25" t="n">
-        <v>52.41589628127291</v>
+        <v>52.41589628127284</v>
       </c>
       <c r="I25" t="n">
-        <v>4.013301776790236</v>
+        <v>4.013301776790165</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.42990669839403</v>
+        <v>97.42990669839395</v>
       </c>
       <c r="T25" t="n">
         <v>127.2098306431213</v>
       </c>
       <c r="U25" t="n">
-        <v>193.872719572565</v>
+        <v>193.8727195725649</v>
       </c>
       <c r="V25" t="n">
         <v>159.7985246907801</v>
@@ -2539,10 +2539,10 @@
         <v>194.1838797035431</v>
       </c>
       <c r="X25" t="n">
-        <v>133.3705367559893</v>
+        <v>133.3705367559892</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.2455347190469</v>
+        <v>126.2455347190468</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883149</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851029</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2928,7 +2928,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515424</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3190,22 +3190,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124562</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136048</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1770.534439563066</v>
+        <v>1325.867802819482</v>
       </c>
       <c r="C11" t="n">
-        <v>1447.394126677659</v>
+        <v>1002.727489934076</v>
       </c>
       <c r="D11" t="n">
-        <v>1134.950632125914</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="E11" t="n">
-        <v>794.9845835826751</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="F11" t="n">
-        <v>429.820882848073</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="G11" t="n">
-        <v>60.31390260707303</v>
+        <v>320.777015141331</v>
       </c>
       <c r="H11" t="n">
-        <v>60.31390260707303</v>
+        <v>66.38634028356933</v>
       </c>
       <c r="I11" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707302</v>
       </c>
       <c r="J11" t="n">
-        <v>227.836665053317</v>
+        <v>227.8366650533171</v>
       </c>
       <c r="K11" t="n">
         <v>529.6483784099305</v>
       </c>
       <c r="L11" t="n">
-        <v>940.9742587040305</v>
+        <v>940.9742587040303</v>
       </c>
       <c r="M11" t="n">
-        <v>1430.322991987629</v>
+        <v>1430.322991987628</v>
       </c>
       <c r="N11" t="n">
         <v>1932.203707752938</v>
       </c>
       <c r="O11" t="n">
-        <v>2392.780174741108</v>
+        <v>2392.780174741109</v>
       </c>
       <c r="P11" t="n">
         <v>2751.370532643392</v>
@@ -5063,28 +5063,28 @@
         <v>2972.484210969455</v>
       </c>
       <c r="R11" t="n">
-        <v>3015.695130353652</v>
+        <v>3015.695130353651</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.695130353652</v>
+        <v>2945.376336697674</v>
       </c>
       <c r="T11" t="n">
-        <v>2854.415733090644</v>
+        <v>2784.096939434666</v>
       </c>
       <c r="U11" t="n">
-        <v>2762.575654708097</v>
+        <v>2576.368128032227</v>
       </c>
       <c r="V11" t="n">
-        <v>2762.575654708097</v>
+        <v>2291.127444743662</v>
       </c>
       <c r="W11" t="n">
-        <v>2455.629203492988</v>
+        <v>1984.180993528553</v>
       </c>
       <c r="X11" t="n">
-        <v>2455.629203492988</v>
+        <v>1656.537439322479</v>
       </c>
       <c r="Y11" t="n">
-        <v>2111.312075572182</v>
+        <v>1325.867802819482</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>895.7169055506407</v>
+        <v>758.2502933856243</v>
       </c>
       <c r="C12" t="n">
-        <v>721.2638762695137</v>
+        <v>583.7972641044973</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1516706632679</v>
+        <v>480.6850584982515</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9142156578123</v>
+        <v>321.447603492796</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3796576846972</v>
+        <v>220.7352495746863</v>
       </c>
       <c r="G12" t="n">
-        <v>175.8791926417784</v>
+        <v>130.0569885867729</v>
       </c>
       <c r="H12" t="n">
         <v>84.05064277117077</v>
       </c>
       <c r="I12" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707302</v>
       </c>
       <c r="J12" t="n">
-        <v>141.2714653172488</v>
+        <v>141.2714653172487</v>
       </c>
       <c r="K12" t="n">
-        <v>357.7956594447331</v>
+        <v>357.795659444733</v>
       </c>
       <c r="L12" t="n">
-        <v>695.2617003494898</v>
+        <v>695.2617003494896</v>
       </c>
       <c r="M12" t="n">
-        <v>1108.425521012774</v>
+        <v>1108.425521012773</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.933203517444</v>
+        <v>1546.933203517443</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.862268380993</v>
+        <v>1925.862268380992</v>
       </c>
       <c r="P12" t="n">
-        <v>2210.653183667185</v>
+        <v>2210.653183667184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2351.109172113749</v>
+        <v>2351.109172113748</v>
       </c>
       <c r="R12" t="n">
-        <v>2351.109172113749</v>
+        <v>2342.436146872488</v>
       </c>
       <c r="S12" t="n">
-        <v>2219.119793291883</v>
+        <v>2210.446768050622</v>
       </c>
       <c r="T12" t="n">
-        <v>2071.745320179926</v>
+        <v>2059.543778364572</v>
       </c>
       <c r="U12" t="n">
-        <v>1889.490640206482</v>
+        <v>1831.466894336123</v>
       </c>
       <c r="V12" t="n">
-        <v>1654.33853197474</v>
+        <v>1596.314786104381</v>
       </c>
       <c r="W12" t="n">
-        <v>1400.101175246538</v>
+        <v>1342.077429376179</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.249675041005</v>
+        <v>1134.225929170646</v>
       </c>
       <c r="Y12" t="n">
-        <v>1030.311580331057</v>
+        <v>926.4656304056923</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>606.2818437768615</v>
+        <v>606.2818437768619</v>
       </c>
       <c r="C13" t="n">
-        <v>544.7294770720895</v>
+        <v>483.1678649039604</v>
       </c>
       <c r="D13" t="n">
-        <v>440.4350417147592</v>
+        <v>378.8734295466302</v>
       </c>
       <c r="E13" t="n">
-        <v>338.3441521873714</v>
+        <v>276.7825400192423</v>
       </c>
       <c r="F13" t="n">
-        <v>237.2764087444665</v>
+        <v>175.7147965763374</v>
       </c>
       <c r="G13" t="n">
-        <v>115.2806140769258</v>
+        <v>161.7327810717107</v>
       </c>
       <c r="H13" t="n">
-        <v>115.2806140769258</v>
+        <v>60.31390260707302</v>
       </c>
       <c r="I13" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707302</v>
       </c>
       <c r="J13" t="n">
         <v>142.3669419811937</v>
@@ -5218,7 +5218,7 @@
         <v>2055.414205988137</v>
       </c>
       <c r="Q13" t="n">
-        <v>2168.483489860809</v>
+        <v>2168.483489860808</v>
       </c>
       <c r="R13" t="n">
         <v>2119.297130009048</v>
@@ -5239,10 +5239,10 @@
         <v>1099.245826483633</v>
       </c>
       <c r="X13" t="n">
-        <v>917.0784796406206</v>
+        <v>917.0784796406208</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.1081045520958</v>
+        <v>742.1081045520962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1041.761469048534</v>
+        <v>1013.424308267737</v>
       </c>
       <c r="C14" t="n">
-        <v>1041.761469048534</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.761469048534</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="E14" t="n">
-        <v>701.7954205052949</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="F14" t="n">
-        <v>690.2839953823311</v>
+        <v>690.2839953823309</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7770151413312</v>
+        <v>320.777015141331</v>
       </c>
       <c r="H14" t="n">
-        <v>66.38634028356945</v>
+        <v>66.38634028356938</v>
       </c>
       <c r="I14" t="n">
-        <v>60.31390260707303</v>
+        <v>60.313902607073</v>
       </c>
       <c r="J14" t="n">
         <v>227.8366650533171</v>
@@ -5282,46 +5282,46 @@
         <v>529.6483784099305</v>
       </c>
       <c r="L14" t="n">
-        <v>940.9742587040309</v>
+        <v>940.9742587040304</v>
       </c>
       <c r="M14" t="n">
-        <v>1430.322991987629</v>
+        <v>1430.322991987628</v>
       </c>
       <c r="N14" t="n">
         <v>1932.203707752938</v>
       </c>
       <c r="O14" t="n">
-        <v>2392.780174741109</v>
+        <v>2392.780174741108</v>
       </c>
       <c r="P14" t="n">
-        <v>2751.370532643392</v>
+        <v>2751.370532643391</v>
       </c>
       <c r="Q14" t="n">
-        <v>2972.484210969455</v>
+        <v>2972.484210969454</v>
       </c>
       <c r="R14" t="n">
-        <v>3015.695130353652</v>
+        <v>3015.69513035365</v>
       </c>
       <c r="S14" t="n">
-        <v>3015.695130353652</v>
+        <v>2945.376336697673</v>
       </c>
       <c r="T14" t="n">
-        <v>2854.415733090644</v>
+        <v>2784.096939434665</v>
       </c>
       <c r="U14" t="n">
-        <v>2646.686921688205</v>
+        <v>2576.368128032227</v>
       </c>
       <c r="V14" t="n">
-        <v>2361.44623839964</v>
+        <v>2291.127444743662</v>
       </c>
       <c r="W14" t="n">
-        <v>2054.499787184531</v>
+        <v>1984.180993528554</v>
       </c>
       <c r="X14" t="n">
-        <v>1726.856232978456</v>
+        <v>1656.537439322479</v>
       </c>
       <c r="Y14" t="n">
-        <v>1382.53910505765</v>
+        <v>1312.220311401673</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>826.1579613315374</v>
+        <v>849.8947014956351</v>
       </c>
       <c r="C15" t="n">
-        <v>651.7049320504104</v>
+        <v>675.4416722145081</v>
       </c>
       <c r="D15" t="n">
-        <v>502.7705223891592</v>
+        <v>526.5072625532569</v>
       </c>
       <c r="E15" t="n">
-        <v>343.5330673837037</v>
+        <v>413.0920116028068</v>
       </c>
       <c r="F15" t="n">
-        <v>196.9985094105887</v>
+        <v>312.3796576846972</v>
       </c>
       <c r="G15" t="n">
-        <v>106.3202484226753</v>
+        <v>175.8791926417784</v>
       </c>
       <c r="H15" t="n">
-        <v>60.31390260707303</v>
+        <v>84.05064277117076</v>
       </c>
       <c r="I15" t="n">
-        <v>60.31390260707303</v>
+        <v>60.313902607073</v>
       </c>
       <c r="J15" t="n">
-        <v>141.2714653172488</v>
+        <v>141.2714653172487</v>
       </c>
       <c r="K15" t="n">
-        <v>357.7956594447331</v>
+        <v>357.795659444733</v>
       </c>
       <c r="L15" t="n">
-        <v>695.2617003494898</v>
+        <v>695.2617003494896</v>
       </c>
       <c r="M15" t="n">
-        <v>1108.425521012774</v>
+        <v>1108.425521012773</v>
       </c>
       <c r="N15" t="n">
-        <v>1546.933203517444</v>
+        <v>1546.933203517443</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.862268380993</v>
+        <v>1925.862268380992</v>
       </c>
       <c r="P15" t="n">
-        <v>2210.653183667185</v>
+        <v>2210.653183667184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2351.109172113749</v>
+        <v>2351.109172113748</v>
       </c>
       <c r="R15" t="n">
-        <v>2351.109172113749</v>
+        <v>2342.436146872488</v>
       </c>
       <c r="S15" t="n">
-        <v>2264.941997346888</v>
+        <v>2210.446768050622</v>
       </c>
       <c r="T15" t="n">
-        <v>2117.567524234931</v>
+        <v>2017.25009088366</v>
       </c>
       <c r="U15" t="n">
-        <v>1899.374562282036</v>
+        <v>1789.173206855211</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.222454050294</v>
+        <v>1596.314786104381</v>
       </c>
       <c r="W15" t="n">
-        <v>1409.985097322092</v>
+        <v>1342.077429376179</v>
       </c>
       <c r="X15" t="n">
-        <v>1202.133597116559</v>
+        <v>1180.048133225652</v>
       </c>
       <c r="Y15" t="n">
-        <v>994.3732983516054</v>
+        <v>972.2878344606977</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.0011875824458</v>
+        <v>655.4682036286227</v>
       </c>
       <c r="C16" t="n">
-        <v>486.8872087095443</v>
+        <v>532.3542247557212</v>
       </c>
       <c r="D16" t="n">
-        <v>486.8872087095443</v>
+        <v>428.059789398391</v>
       </c>
       <c r="E16" t="n">
-        <v>384.7963191821565</v>
+        <v>325.9688998710039</v>
       </c>
       <c r="F16" t="n">
-        <v>283.7285757392515</v>
+        <v>325.9688998710039</v>
       </c>
       <c r="G16" t="n">
-        <v>161.7327810717108</v>
+        <v>203.9731052034634</v>
       </c>
       <c r="H16" t="n">
-        <v>60.31390260707303</v>
+        <v>115.2806140769258</v>
       </c>
       <c r="I16" t="n">
-        <v>60.31390260707303</v>
+        <v>60.313902607073</v>
       </c>
       <c r="J16" t="n">
-        <v>142.3669419811937</v>
+        <v>142.3669419811936</v>
       </c>
       <c r="K16" t="n">
-        <v>378.1509821412428</v>
+        <v>378.1509821412425</v>
       </c>
       <c r="L16" t="n">
         <v>722.8403768204937</v>
@@ -5458,28 +5458,28 @@
         <v>2168.483489860809</v>
       </c>
       <c r="R16" t="n">
-        <v>2119.297130009048</v>
+        <v>2168.483489860809</v>
       </c>
       <c r="S16" t="n">
-        <v>1971.426488613999</v>
+        <v>2020.61284846576</v>
       </c>
       <c r="T16" t="n">
-        <v>1794.990021004762</v>
+        <v>1844.176380856523</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.703076616469</v>
+        <v>1600.88943646823</v>
       </c>
       <c r="V16" t="n">
-        <v>1342.840792465588</v>
+        <v>1392.027152317349</v>
       </c>
       <c r="W16" t="n">
-        <v>1099.245826483633</v>
+        <v>1148.432186335393</v>
       </c>
       <c r="X16" t="n">
-        <v>917.0784796406206</v>
+        <v>966.2648394923816</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.1081045520958</v>
+        <v>791.294464403857</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1740.227316732388</v>
+        <v>1351.03973897714</v>
       </c>
       <c r="C17" t="n">
-        <v>1464.536636795055</v>
+        <v>1075.349059039807</v>
       </c>
       <c r="D17" t="n">
-        <v>1199.542775191383</v>
+        <v>877.4854278984557</v>
       </c>
       <c r="E17" t="n">
-        <v>907.0263595962174</v>
+        <v>584.9690123032901</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3122918096883</v>
+        <v>267.2549445167614</v>
       </c>
       <c r="G17" t="n">
-        <v>267.2549445167615</v>
+        <v>267.2549445167614</v>
       </c>
       <c r="H17" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="I17" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="J17" t="n">
-        <v>227.8366650533167</v>
+        <v>227.8366650533171</v>
       </c>
       <c r="K17" t="n">
-        <v>529.6483784099303</v>
+        <v>529.6483784099307</v>
       </c>
       <c r="L17" t="n">
-        <v>940.9742587040305</v>
+        <v>940.9742587040303</v>
       </c>
       <c r="M17" t="n">
-        <v>1430.322991987629</v>
+        <v>1430.322991987628</v>
       </c>
       <c r="N17" t="n">
-        <v>1932.203707752938</v>
+        <v>1932.203707752937</v>
       </c>
       <c r="O17" t="n">
-        <v>2392.780174741109</v>
+        <v>2392.780174741107</v>
       </c>
       <c r="P17" t="n">
-        <v>2751.370532643392</v>
+        <v>2751.37053264339</v>
       </c>
       <c r="Q17" t="n">
-        <v>2972.484210969455</v>
+        <v>2972.484210969453</v>
       </c>
       <c r="R17" t="n">
-        <v>3015.695130353652</v>
+        <v>3015.695130353648</v>
       </c>
       <c r="S17" t="n">
-        <v>2992.825969645748</v>
+        <v>2992.825969645744</v>
       </c>
       <c r="T17" t="n">
-        <v>2971.316288113325</v>
+        <v>2878.99620533081</v>
       </c>
       <c r="U17" t="n">
-        <v>2811.03710965896</v>
+        <v>2718.717026876445</v>
       </c>
       <c r="V17" t="n">
-        <v>2573.246059318468</v>
+        <v>2480.925976535953</v>
       </c>
       <c r="W17" t="n">
-        <v>2313.749241051432</v>
+        <v>2221.429158268918</v>
       </c>
       <c r="X17" t="n">
-        <v>2033.555319793431</v>
+        <v>1941.235237010917</v>
       </c>
       <c r="Y17" t="n">
-        <v>2033.555319793431</v>
+        <v>1644.367742038183</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>824.5305324384695</v>
+        <v>809.2284429077891</v>
       </c>
       <c r="C18" t="n">
-        <v>650.0775031573426</v>
+        <v>634.7754136266622</v>
       </c>
       <c r="D18" t="n">
-        <v>501.1430934960914</v>
+        <v>485.8410039654109</v>
       </c>
       <c r="E18" t="n">
-        <v>341.9056384906359</v>
+        <v>419.875385963034</v>
       </c>
       <c r="F18" t="n">
-        <v>195.3710805175208</v>
+        <v>312.3796576846972</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1424524776806</v>
+        <v>175.8791926417784</v>
       </c>
       <c r="H18" t="n">
-        <v>60.31390260707303</v>
+        <v>84.05064277117074</v>
       </c>
       <c r="I18" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="J18" t="n">
-        <v>141.2714653172488</v>
+        <v>141.2714653172486</v>
       </c>
       <c r="K18" t="n">
-        <v>357.7956594447332</v>
+        <v>357.7956594447327</v>
       </c>
       <c r="L18" t="n">
-        <v>695.2617003494901</v>
+        <v>695.2617003494892</v>
       </c>
       <c r="M18" t="n">
-        <v>1108.425521012774</v>
+        <v>1108.425521012773</v>
       </c>
       <c r="N18" t="n">
-        <v>1546.933203517444</v>
+        <v>1546.933203517443</v>
       </c>
       <c r="O18" t="n">
-        <v>1925.862268380993</v>
+        <v>1925.862268380991</v>
       </c>
       <c r="P18" t="n">
-        <v>2210.653183667185</v>
+        <v>2210.653183667183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2351.10917211375</v>
+        <v>2351.109172113747</v>
       </c>
       <c r="R18" t="n">
-        <v>2342.436146872489</v>
+        <v>2342.436146872486</v>
       </c>
       <c r="S18" t="n">
-        <v>2210.446768050623</v>
+        <v>2210.44676805062</v>
       </c>
       <c r="T18" t="n">
-        <v>2032.552180414338</v>
+        <v>2017.250090883658</v>
       </c>
       <c r="U18" t="n">
-        <v>1897.747133388968</v>
+        <v>1789.173206855209</v>
       </c>
       <c r="V18" t="n">
-        <v>1662.595025157226</v>
+        <v>1554.021098623467</v>
       </c>
       <c r="W18" t="n">
-        <v>1408.357668429024</v>
+        <v>1299.783741895265</v>
       </c>
       <c r="X18" t="n">
-        <v>1200.506168223491</v>
+        <v>1091.932241689732</v>
       </c>
       <c r="Y18" t="n">
-        <v>992.7458694585375</v>
+        <v>884.1719429247785</v>
       </c>
     </row>
     <row r="19">
@@ -5665,25 +5665,25 @@
         <v>121.800226645417</v>
       </c>
       <c r="H19" t="n">
-        <v>67.83098112885256</v>
+        <v>67.83098112885254</v>
       </c>
       <c r="I19" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="J19" t="n">
-        <v>155.5724483241042</v>
+        <v>155.5724483241041</v>
       </c>
       <c r="K19" t="n">
-        <v>332.1855450553539</v>
+        <v>332.1855450553535</v>
       </c>
       <c r="L19" t="n">
-        <v>562.5303704608729</v>
+        <v>562.5303704608722</v>
       </c>
       <c r="M19" t="n">
-        <v>803.6856354224178</v>
+        <v>841.8364591370678</v>
       </c>
       <c r="N19" t="n">
-        <v>1087.28877848678</v>
+        <v>1087.288778486781</v>
       </c>
       <c r="O19" t="n">
         <v>1300.669141183156</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1418.169969439461</v>
+        <v>1422.513248945859</v>
       </c>
       <c r="C20" t="n">
-        <v>1142.479289502128</v>
+        <v>1146.822569008526</v>
       </c>
       <c r="D20" t="n">
-        <v>877.4854278984558</v>
+        <v>881.828707404854</v>
       </c>
       <c r="E20" t="n">
-        <v>584.9690123032906</v>
+        <v>589.3122918096885</v>
       </c>
       <c r="F20" t="n">
-        <v>267.254944516762</v>
+        <v>589.3122918096885</v>
       </c>
       <c r="G20" t="n">
         <v>267.254944516762</v>
       </c>
       <c r="H20" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="I20" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="J20" t="n">
-        <v>227.8366650533171</v>
+        <v>227.8366650533167</v>
       </c>
       <c r="K20" t="n">
-        <v>529.6483784099307</v>
+        <v>529.6483784099296</v>
       </c>
       <c r="L20" t="n">
-        <v>940.9742587040307</v>
+        <v>940.9742587040294</v>
       </c>
       <c r="M20" t="n">
-        <v>1430.322991987629</v>
+        <v>1430.322991987627</v>
       </c>
       <c r="N20" t="n">
-        <v>1932.203707752939</v>
+        <v>1932.203707752936</v>
       </c>
       <c r="O20" t="n">
-        <v>2392.780174741109</v>
+        <v>2392.780174741107</v>
       </c>
       <c r="P20" t="n">
-        <v>2751.370532643393</v>
+        <v>2751.37053264339</v>
       </c>
       <c r="Q20" t="n">
-        <v>2972.484210969456</v>
+        <v>2972.484210969453</v>
       </c>
       <c r="R20" t="n">
-        <v>3015.695130353652</v>
+        <v>3015.695130353648</v>
       </c>
       <c r="S20" t="n">
-        <v>2992.825969645748</v>
+        <v>2992.825969645744</v>
       </c>
       <c r="T20" t="n">
-        <v>2946.126435793131</v>
+        <v>2878.99620533081</v>
       </c>
       <c r="U20" t="n">
-        <v>2785.847257338766</v>
+        <v>2718.717026876445</v>
       </c>
       <c r="V20" t="n">
-        <v>2548.056206998274</v>
+        <v>2552.399486504672</v>
       </c>
       <c r="W20" t="n">
-        <v>2288.559388731238</v>
+        <v>2292.902668237636</v>
       </c>
       <c r="X20" t="n">
-        <v>2008.365467473237</v>
+        <v>2012.708746979635</v>
       </c>
       <c r="Y20" t="n">
-        <v>1711.497972500504</v>
+        <v>1715.841252006902</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>817.9014681490512</v>
+        <v>715.9566059047104</v>
       </c>
       <c r="C21" t="n">
-        <v>736.7202758710029</v>
+        <v>634.775413626662</v>
       </c>
       <c r="D21" t="n">
-        <v>587.7858662097516</v>
+        <v>485.8410039654108</v>
       </c>
       <c r="E21" t="n">
-        <v>428.5484112042961</v>
+        <v>341.9056384906358</v>
       </c>
       <c r="F21" t="n">
         <v>288.6429175205994</v>
@@ -5823,58 +5823,58 @@
         <v>152.1424524776806</v>
       </c>
       <c r="H21" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="I21" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="J21" t="n">
-        <v>141.2714653172488</v>
+        <v>141.2714653172486</v>
       </c>
       <c r="K21" t="n">
-        <v>357.7956594447331</v>
+        <v>357.7956594447327</v>
       </c>
       <c r="L21" t="n">
-        <v>695.2617003494898</v>
+        <v>695.2617003494892</v>
       </c>
       <c r="M21" t="n">
-        <v>1108.425521012774</v>
+        <v>1108.425521012773</v>
       </c>
       <c r="N21" t="n">
-        <v>1546.933203517444</v>
+        <v>1546.933203517443</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.862268380993</v>
+        <v>1925.862268380991</v>
       </c>
       <c r="P21" t="n">
-        <v>2210.653183667185</v>
+        <v>2210.653183667183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2351.109172113749</v>
+        <v>2351.109172113747</v>
       </c>
       <c r="R21" t="n">
-        <v>2351.109172113749</v>
+        <v>2342.436146872486</v>
       </c>
       <c r="S21" t="n">
-        <v>2219.119793291883</v>
+        <v>2210.44676805062</v>
       </c>
       <c r="T21" t="n">
-        <v>2025.92311612492</v>
+        <v>2017.250090883658</v>
       </c>
       <c r="U21" t="n">
-        <v>1797.846232096472</v>
+        <v>1789.173206855209</v>
       </c>
       <c r="V21" t="n">
-        <v>1655.965960867808</v>
+        <v>1554.021098623467</v>
       </c>
       <c r="W21" t="n">
-        <v>1401.728604139606</v>
+        <v>1299.783741895265</v>
       </c>
       <c r="X21" t="n">
-        <v>1193.877103934073</v>
+        <v>1091.932241689732</v>
       </c>
       <c r="Y21" t="n">
-        <v>986.1168051691193</v>
+        <v>884.1719429247785</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.1149037731158</v>
+        <v>437.1149037731157</v>
       </c>
       <c r="C22" t="n">
         <v>361.4505578482875</v>
       </c>
       <c r="D22" t="n">
-        <v>304.6057554390305</v>
+        <v>304.6057554390304</v>
       </c>
       <c r="E22" t="n">
         <v>249.964498859716</v>
@@ -5902,31 +5902,31 @@
         <v>121.800226645417</v>
       </c>
       <c r="H22" t="n">
-        <v>67.83098112885257</v>
+        <v>67.83098112885254</v>
       </c>
       <c r="I22" t="n">
-        <v>60.31390260707303</v>
+        <v>60.31390260707297</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8723272336003</v>
+        <v>155.5724483241041</v>
       </c>
       <c r="K22" t="n">
-        <v>365.4854239648499</v>
+        <v>332.1855450553535</v>
       </c>
       <c r="L22" t="n">
-        <v>595.8302493703688</v>
+        <v>562.5303704608722</v>
       </c>
       <c r="M22" t="n">
-        <v>836.9855143319138</v>
+        <v>803.6856354224169</v>
       </c>
       <c r="N22" t="n">
-        <v>1082.437833681627</v>
+        <v>1087.288778486781</v>
       </c>
       <c r="O22" t="n">
-        <v>1295.818196378003</v>
+        <v>1300.669141183156</v>
       </c>
       <c r="P22" t="n">
-        <v>1472.533768188146</v>
+        <v>1477.384712993299</v>
       </c>
       <c r="Q22" t="n">
         <v>1572.269853324404</v>
@@ -5953,7 +5953,7 @@
         <v>653.0122737407282</v>
       </c>
       <c r="Y22" t="n">
-        <v>525.4915316002769</v>
+        <v>525.4915316002767</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1469.391580120704</v>
       </c>
       <c r="D23" t="n">
-        <v>1204.397718517033</v>
+        <v>1204.397718517032</v>
       </c>
       <c r="E23" t="n">
-        <v>911.8813029218672</v>
+        <v>911.881302921867</v>
       </c>
       <c r="F23" t="n">
-        <v>594.1672351353386</v>
+        <v>594.1672351353382</v>
       </c>
       <c r="G23" t="n">
-        <v>272.3666219834132</v>
+        <v>272.3666219834131</v>
       </c>
       <c r="H23" t="n">
-        <v>68.05485859525906</v>
+        <v>68.05485859525903</v>
       </c>
       <c r="I23" t="n">
-        <v>68.05485859525906</v>
+        <v>68.05485859525903</v>
       </c>
       <c r="J23" t="n">
         <v>256.9339895542844</v>
@@ -6008,31 +6008,31 @@
         <v>3019.84513545976</v>
       </c>
       <c r="Q23" t="n">
-        <v>3343.725863206151</v>
+        <v>3268.131497215442</v>
       </c>
       <c r="R23" t="n">
-        <v>3402.742929762953</v>
+        <v>3402.742929762951</v>
       </c>
       <c r="S23" t="n">
-        <v>3385.724098293127</v>
+        <v>3385.724098293125</v>
       </c>
       <c r="T23" t="n">
-        <v>3273.018187680428</v>
+        <v>3273.018187680426</v>
       </c>
       <c r="U23" t="n">
-        <v>3112.759547957343</v>
+        <v>3112.759547957342</v>
       </c>
       <c r="V23" t="n">
-        <v>2874.968497616851</v>
+        <v>2874.96849761685</v>
       </c>
       <c r="W23" t="n">
         <v>2615.471679349815</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.277758091813</v>
+        <v>2335.277758091814</v>
       </c>
       <c r="Y23" t="n">
-        <v>2038.41026311908</v>
+        <v>2038.410263119081</v>
       </c>
     </row>
     <row r="24">
@@ -6051,22 +6051,22 @@
         <v>619.6991577018049</v>
       </c>
       <c r="E24" t="n">
-        <v>460.4617026963494</v>
+        <v>460.4617026963505</v>
       </c>
       <c r="F24" t="n">
-        <v>313.9271447232344</v>
+        <v>313.9271447232355</v>
       </c>
       <c r="G24" t="n">
-        <v>177.5640445558525</v>
+        <v>177.5640445558536</v>
       </c>
       <c r="H24" t="n">
-        <v>87.06215019372</v>
+        <v>87.0621501937211</v>
       </c>
       <c r="I24" t="n">
-        <v>68.05485859525906</v>
+        <v>68.05485859525903</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7321280858764</v>
+        <v>161.7321280858763</v>
       </c>
       <c r="K24" t="n">
         <v>399.9963270662234</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>440.2535635833324</v>
+        <v>440.2535635833319</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5892176585042</v>
+        <v>364.5892176585037</v>
       </c>
       <c r="D25" t="n">
-        <v>307.7444152492471</v>
+        <v>307.7444152492467</v>
       </c>
       <c r="E25" t="n">
-        <v>253.1031586699327</v>
+        <v>253.1031586699324</v>
       </c>
       <c r="F25" t="n">
-        <v>199.485048175101</v>
+        <v>199.4850481751008</v>
       </c>
       <c r="G25" t="n">
-        <v>125.0540485528986</v>
+        <v>125.0540485528984</v>
       </c>
       <c r="H25" t="n">
-        <v>72.10869877383506</v>
+        <v>72.10869877383496</v>
       </c>
       <c r="I25" t="n">
-        <v>68.05485859525906</v>
+        <v>68.05485859525903</v>
       </c>
       <c r="J25" t="n">
         <v>171.2933395794159</v>
       </c>
       <c r="K25" t="n">
-        <v>361.0199212938036</v>
+        <v>361.0199212938037</v>
       </c>
       <c r="L25" t="n">
-        <v>525.5564122592209</v>
+        <v>608.1454926628784</v>
       </c>
       <c r="M25" t="n">
-        <v>784.4046210051361</v>
+        <v>866.9937014087936</v>
       </c>
       <c r="N25" t="n">
-        <v>1047.129185481701</v>
+        <v>1129.718265885359</v>
       </c>
       <c r="O25" t="n">
-        <v>1276.463262146608</v>
+        <v>1359.052342550266</v>
       </c>
       <c r="P25" t="n">
-        <v>1466.829992346084</v>
+        <v>1549.419072749742</v>
       </c>
       <c r="Q25" t="n">
-        <v>1571.166487151342</v>
+        <v>1567.79359084797</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.166487151342</v>
+        <v>1571.166487151341</v>
       </c>
       <c r="S25" t="n">
-        <v>1472.752439981247</v>
+        <v>1472.752439981246</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.257661553852</v>
+        <v>1344.257661553851</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.426631682574</v>
+        <v>1148.426631682573</v>
       </c>
       <c r="V25" t="n">
-        <v>987.0139804797657</v>
+        <v>987.0139804797648</v>
       </c>
       <c r="W25" t="n">
-        <v>790.8686474458837</v>
+        <v>790.8686474458829</v>
       </c>
       <c r="X25" t="n">
-        <v>656.150933550945</v>
+        <v>656.1509335509443</v>
       </c>
       <c r="Y25" t="n">
-        <v>528.6301914104935</v>
+        <v>528.6301914104929</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>86.49114167389912</v>
+        <v>86.49114167389909</v>
       </c>
       <c r="J26" t="n">
-        <v>489.2813069056842</v>
+        <v>321.8756578853311</v>
       </c>
       <c r="K26" t="n">
-        <v>869.6060658479373</v>
+        <v>702.2004168275841</v>
       </c>
       <c r="L26" t="n">
-        <v>1427.89329036606</v>
+        <v>1199.740015328399</v>
       </c>
       <c r="M26" t="n">
-        <v>2007.930580290391</v>
+        <v>1779.77730525273</v>
       </c>
       <c r="N26" t="n">
-        <v>2601.21478260158</v>
+        <v>2373.061507563919</v>
       </c>
       <c r="O26" t="n">
-        <v>3150.692638733323</v>
+        <v>3215.751894407576</v>
       </c>
       <c r="P26" t="n">
-        <v>3591.972390342908</v>
+        <v>3657.031646017161</v>
       </c>
       <c r="Q26" t="n">
-        <v>3886.764137350997</v>
+        <v>3951.82339302525</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6303,49 +6303,49 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6367,13 +6367,13 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6443,22 +6443,22 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>86.49114167389909</v>
+        <v>86.49114167389908</v>
       </c>
       <c r="J29" t="n">
         <v>321.8756578853311</v>
@@ -6476,16 +6476,16 @@
         <v>2373.061507563919</v>
       </c>
       <c r="O29" t="n">
-        <v>3150.692638733323</v>
+        <v>2922.539363695662</v>
       </c>
       <c r="P29" t="n">
-        <v>3591.972390342908</v>
+        <v>3657.03164601716</v>
       </c>
       <c r="Q29" t="n">
-        <v>3886.764137350997</v>
+        <v>3951.823393025249</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6576,13 +6576,13 @@
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>86.49114167389904</v>
+        <v>86.49114167389902</v>
       </c>
       <c r="J32" t="n">
         <v>321.875657885331</v>
       </c>
       <c r="K32" t="n">
-        <v>702.2004168275839</v>
+        <v>785.221106786192</v>
       </c>
       <c r="L32" t="n">
-        <v>1217.701449612755</v>
+        <v>1282.760705287007</v>
       </c>
       <c r="M32" t="n">
-        <v>1797.738739537086</v>
+        <v>1862.797995211338</v>
       </c>
       <c r="N32" t="n">
-        <v>2391.022941848275</v>
+        <v>2456.082197522527</v>
       </c>
       <c r="O32" t="n">
-        <v>2940.500797980018</v>
+        <v>3005.56005365427</v>
       </c>
       <c r="P32" t="n">
-        <v>3381.780549589602</v>
+        <v>3446.839805263854</v>
       </c>
       <c r="Q32" t="n">
-        <v>3886.764137350997</v>
+        <v>3951.823393025249</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833289</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6804,22 +6804,22 @@
         <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960326</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973154</v>
@@ -6886,13 +6886,13 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297368</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,22 +7032,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199864</v>
@@ -7056,7 +7056,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501176</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J37" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>358.9027651347968</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572063</v>
+        <v>611.3204820829779</v>
       </c>
       <c r="M37" t="n">
-        <v>887.938518382228</v>
+        <v>875.4608364079996</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.247355412075</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O37" t="n">
-        <v>1293.873577656089</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P37" t="n">
-        <v>1392.824580408848</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363023</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7175,22 +7175,22 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7202,19 +7202,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064548</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155309</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090252</v>
+        <v>273.353597263117</v>
       </c>
       <c r="L40" t="n">
-        <v>623.7981640572062</v>
+        <v>429.0634411854742</v>
       </c>
       <c r="M40" t="n">
-        <v>791.230645356404</v>
+        <v>693.2037955104959</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.247355412075</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O40" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,31 +7394,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,31 +7427,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7482,25 +7482,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970702</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K43" t="n">
-        <v>177.9647010573773</v>
+        <v>273.353597263117</v>
       </c>
       <c r="L43" t="n">
-        <v>430.3824180055584</v>
+        <v>505.9475671746785</v>
       </c>
       <c r="M43" t="n">
-        <v>694.52277233058</v>
+        <v>673.3800484738763</v>
       </c>
       <c r="N43" t="n">
-        <v>962.5394823862514</v>
+        <v>941.3967585295476</v>
       </c>
       <c r="O43" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P43" t="n">
-        <v>1392.824580408847</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103803</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070896</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464952</v>
       </c>
       <c r="F44" t="n">
         <v>581.825297830733</v>
@@ -7649,7 +7649,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,13 +7658,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,22 +7676,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155309</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090252</v>
+        <v>273.353597263117</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313823</v>
+        <v>525.771314211298</v>
       </c>
       <c r="M46" t="n">
-        <v>770.087921499699</v>
+        <v>789.9116685363196</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799384</v>
+        <v>1292.554600836004</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577967</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
   </sheetData>
@@ -9328,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>38.53618557035446</v>
       </c>
       <c r="N19" t="n">
-        <v>38.53618557035264</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>38.53618557035446</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.899944247629506</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>61.36123840132018</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>296.1742734463778</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272298</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>230.4578535733948</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>296.1742734463771</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140414</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>83.85928278647282</v>
       </c>
       <c r="L32" t="n">
-        <v>18.14286291349066</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272463</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446537</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>337.3698596490252</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>336.5663880578064</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>361.5120637272561</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>251.8467681091842</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.011713299731468</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.61560571941745</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>114.7298456896924</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>282.3882764556796</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>324.3671186640137</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.51101650363144</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.94599604644899</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>106.9336413712847</v>
       </c>
       <c r="H13" t="n">
-        <v>100.4046896799914</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.41704435515424</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>41.56181654642879</v>
       </c>
       <c r="C14" t="n">
-        <v>319.9089097565522</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>309.3190596062277</v>
+        <v>309.3190596062276</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>336.5663880578064</v>
       </c>
       <c r="F14" t="n">
-        <v>350.1157528555219</v>
+        <v>361.5120637272561</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.61560571941745</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.682150367528493</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>103.251491003757</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.0570660084759</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.59912346471904</v>
       </c>
       <c r="I16" t="n">
-        <v>54.41704435515429</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.69449625324309</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>66.4589281576969</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>318.8367738199973</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>91.39688195468595</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>293.8988200230057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>314.5369271086636</v>
       </c>
       <c r="G20" t="n">
-        <v>318.8367738199973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>66.45892815769412</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>70.75877486903146</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>931118.9498240417</v>
+        <v>931118.9498240415</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>931118.9498240416</v>
+        <v>931118.9498240417</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>988497.0893444453</v>
+        <v>988497.0893444449</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>988497.0893444452</v>
+        <v>988497.0893444449</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585193</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.1693585193</v>
+        <v>409638.1693585192</v>
       </c>
       <c r="D2" t="n">
-        <v>409675.7341646194</v>
+        <v>409675.7341646193</v>
       </c>
       <c r="E2" t="n">
-        <v>366836.0954515033</v>
+        <v>366836.0954515029</v>
       </c>
       <c r="F2" t="n">
         <v>366836.0954515032</v>
       </c>
       <c r="G2" t="n">
-        <v>395186.1159934289</v>
+        <v>395186.1159934287</v>
       </c>
       <c r="H2" t="n">
-        <v>395186.1159934289</v>
+        <v>395186.1159934287</v>
       </c>
       <c r="I2" t="n">
         <v>410520.8849321411</v>
       </c>
       <c r="J2" t="n">
-        <v>410520.8849321408</v>
+        <v>410520.8849321412</v>
       </c>
       <c r="K2" t="n">
-        <v>410520.8849321413</v>
+        <v>410520.8849321406</v>
       </c>
       <c r="L2" t="n">
         <v>410520.8849321407</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="N2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>897508.7800239804</v>
+        <v>897508.7800239803</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487422</v>
+        <v>37580.10929487351</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73322.83076786961</v>
+        <v>73322.83076787028</v>
       </c>
       <c r="J3" t="n">
-        <v>42818.23127774223</v>
+        <v>42818.23127774236</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487395</v>
       </c>
       <c r="M3" t="n">
-        <v>182860.3540168142</v>
+        <v>182860.3540168141</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>65842.91089474817</v>
+        <v>65842.91089474826</v>
       </c>
       <c r="F4" t="n">
-        <v>65842.91089474817</v>
+        <v>65842.91089474826</v>
       </c>
       <c r="G4" t="n">
-        <v>97920.21952056914</v>
+        <v>97920.21952056926</v>
       </c>
       <c r="H4" t="n">
-        <v>97920.2195205692</v>
+        <v>97920.21952056926</v>
       </c>
       <c r="I4" t="n">
-        <v>93877.11913013498</v>
+        <v>93877.11913013493</v>
       </c>
       <c r="J4" t="n">
-        <v>94970.87945926862</v>
+        <v>94970.8794592687</v>
       </c>
       <c r="K4" t="n">
         <v>94970.87945926868</v>
       </c>
       <c r="L4" t="n">
-        <v>94970.87945926862</v>
+        <v>94970.87945926865</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657699</v>
       </c>
       <c r="N4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="O4" t="n">
-        <v>93774.13782657702</v>
-      </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>72031.11964579651</v>
+        <v>72031.1196457965</v>
       </c>
       <c r="F5" t="n">
-        <v>72031.11964579651</v>
+        <v>72031.11964579648</v>
       </c>
       <c r="G5" t="n">
-        <v>75980.27240618497</v>
+        <v>75980.2724061849</v>
       </c>
       <c r="H5" t="n">
-        <v>75980.27240618496</v>
+        <v>75980.2724061849</v>
       </c>
       <c r="I5" t="n">
-        <v>83241.68196969249</v>
+        <v>83241.68196969246</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,13 +26500,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624984</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91605.39057321209</v>
+        <v>-91609.80415108002</v>
       </c>
       <c r="C6" t="n">
-        <v>-91605.39057321197</v>
+        <v>-91609.80415108014</v>
       </c>
       <c r="D6" t="n">
-        <v>-215922.8228073873</v>
+        <v>-215927.048561225</v>
       </c>
       <c r="E6" t="n">
-        <v>-668546.7151130218</v>
+        <v>-668765.1390604253</v>
       </c>
       <c r="F6" t="n">
-        <v>228962.0649109585</v>
+        <v>228743.6409635552</v>
       </c>
       <c r="G6" t="n">
-        <v>183705.5147718005</v>
+        <v>183628.8409271076</v>
       </c>
       <c r="H6" t="n">
-        <v>221285.6240666749</v>
+        <v>221208.950221981</v>
       </c>
       <c r="I6" t="n">
-        <v>160079.253064444</v>
+        <v>160079.2530644434</v>
       </c>
       <c r="J6" t="n">
-        <v>183353.8325203239</v>
+        <v>183353.832520324</v>
       </c>
       <c r="K6" t="n">
-        <v>226172.0637980665</v>
+        <v>226172.0637980658</v>
       </c>
       <c r="L6" t="n">
-        <v>188591.9545031919</v>
+        <v>188591.954503192</v>
       </c>
       <c r="M6" t="n">
-        <v>51367.79578250062</v>
+        <v>51367.79578250081</v>
       </c>
       <c r="N6" t="n">
         <v>234228.149799315</v>
       </c>
       <c r="O6" t="n">
-        <v>234228.149799315</v>
+        <v>234228.1497993149</v>
       </c>
       <c r="P6" t="n">
         <v>234228.1497993149</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="F2" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G2" t="n">
         <v>92.33911863304787</v>
@@ -26704,7 +26704,7 @@
         <v>92.33911863304787</v>
       </c>
       <c r="I2" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>1026.552709194851</v>
       </c>
       <c r="G3" t="n">
-        <v>1026.552709194852</v>
+        <v>1026.552709194851</v>
       </c>
       <c r="H3" t="n">
         <v>1026.552709194851</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884129</v>
+        <v>753.9237825884127</v>
       </c>
       <c r="F4" t="n">
-        <v>753.9237825884129</v>
+        <v>753.9237825884126</v>
       </c>
       <c r="G4" t="n">
-        <v>753.9237825884129</v>
+        <v>753.9237825884121</v>
       </c>
       <c r="H4" t="n">
-        <v>753.9237825884129</v>
+        <v>753.9237825884121</v>
       </c>
       <c r="I4" t="n">
-        <v>850.6857324407383</v>
+        <v>850.6857324407379</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445538</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951251</v>
+        <v>50.70958360951244</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>791.7726710688571</v>
+        <v>791.7726710688569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.718635792368336e-15</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22399139844674</v>
+        <v>63.22399139844742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9237825884129</v>
+        <v>753.9237825884127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.76194985232542</v>
+        <v>96.76194985232576</v>
       </c>
       <c r="J4" t="n">
-        <v>163.6507287678763</v>
+        <v>163.6507287678768</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445538</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9237825884129</v>
+        <v>753.9237825884127</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="C11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="D11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="E11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="F11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="H11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="I11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="T11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="U11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="V11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="W11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="X11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.28445561725542</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.586294988847726</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>45.36398201445532</v>
+        <v>41.87075060610343</v>
       </c>
       <c r="U12" t="n">
-        <v>45.36398201445532</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.36398201445532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="C13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="D13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="E13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="F13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="H13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="I13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="J13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="K13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="L13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="M13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="N13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="O13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="P13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="R13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="S13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="T13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="U13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="V13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="W13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="X13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="C14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="D14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="E14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="F14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="H14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="I14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="T14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="V14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="W14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="X14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,19 +28412,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G15" t="n">
-        <v>45.36398201445532</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.36398201445532</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.49937276245676</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.586294988847726</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>45.36398201445532</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>45.36398201445532</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>9.785082854798361</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>41.8707506061034</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="C16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="D16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="E16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="F16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="G16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="H16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="I16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="J16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="K16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="L16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="M16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="N16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="O16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="P16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="R16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="S16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="T16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="U16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="V16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="W16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="X16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.36398201445532</v>
+        <v>45.36398201445539</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>92.33911863304787</v>
       </c>
       <c r="I17" t="n">
-        <v>51.37569531418671</v>
+        <v>51.37569531418686</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>38.64844139783045</v>
       </c>
       <c r="G18" t="n">
-        <v>92.33911863304787</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.49937276245673</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,10 +28694,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>15.14906863537075</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>92.33911863304787</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>92.33911863304787</v>
       </c>
       <c r="I20" t="n">
-        <v>51.37569531418677</v>
+        <v>51.37569531418686</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28886,10 +28886,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>15.14906863537371</v>
       </c>
       <c r="F21" t="n">
-        <v>6.562773646524192</v>
+        <v>92.33911863304787</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.49937276245676</v>
+        <v>23.4993727624568</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.586294988847726</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>92.33911863304787</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="C23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="D23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="E23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="F23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="G23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="H23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>76.35794544516003</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.35794544515824</v>
       </c>
       <c r="S23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="T23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="U23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="V23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="W23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="X23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="Y23" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
     </row>
     <row r="24">
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="C25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="D25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="E25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="F25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="G25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="H25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="I25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="K25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="L25" t="n">
-        <v>8.91580509400012</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="M25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="N25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="O25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="P25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="Q25" t="n">
-        <v>92.33911863304787</v>
+        <v>5.508839130997462</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="S25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="T25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="U25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="V25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="W25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="X25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.33911863304787</v>
+        <v>92.33911863304795</v>
       </c>
     </row>
     <row r="26">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810499</v>
+        <v>85.08100106221767</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.32843350415975</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810499</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242831</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P40" t="n">
-        <v>76.3284335041603</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242857</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.32843350416067</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M46" t="n">
-        <v>76.32843350416047</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>77.66073332242868</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.126845062089852</v>
+        <v>4.126845062089851</v>
       </c>
       <c r="H11" t="n">
-        <v>42.2640519921277</v>
+        <v>42.26405199212769</v>
       </c>
       <c r="I11" t="n">
         <v>159.1001942562191</v>
@@ -31762,31 +31762,31 @@
         <v>350.2608160885488</v>
       </c>
       <c r="K11" t="n">
-        <v>524.9501675668124</v>
+        <v>524.9501675668123</v>
       </c>
       <c r="L11" t="n">
-        <v>651.2471021357447</v>
+        <v>651.2471021357446</v>
       </c>
       <c r="M11" t="n">
-        <v>724.6378830086852</v>
+        <v>724.637883008685</v>
       </c>
       <c r="N11" t="n">
-        <v>736.363281541348</v>
+        <v>736.3632815413479</v>
       </c>
       <c r="O11" t="n">
-        <v>695.326965955192</v>
+        <v>695.3269659551919</v>
       </c>
       <c r="P11" t="n">
-        <v>593.4454784848486</v>
+        <v>593.4454784848485</v>
       </c>
       <c r="Q11" t="n">
-        <v>445.6528396987558</v>
+        <v>445.6528396987557</v>
       </c>
       <c r="R11" t="n">
-        <v>259.2329311315019</v>
+        <v>259.2329311315018</v>
       </c>
       <c r="S11" t="n">
-        <v>94.04048185237258</v>
+        <v>94.04048185237257</v>
       </c>
       <c r="T11" t="n">
         <v>18.06526425929833</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.208056770721001</v>
+        <v>2.208056770721</v>
       </c>
       <c r="H12" t="n">
         <v>21.32517986459493</v>
       </c>
       <c r="I12" t="n">
-        <v>76.02300723754324</v>
+        <v>76.02300723754323</v>
       </c>
       <c r="J12" t="n">
         <v>208.6129425355311</v>
       </c>
       <c r="K12" t="n">
-        <v>356.5527461738382</v>
+        <v>356.5527461738381</v>
       </c>
       <c r="L12" t="n">
-        <v>479.4291685725577</v>
+        <v>479.4291685725576</v>
       </c>
       <c r="M12" t="n">
-        <v>559.4712265111939</v>
+        <v>559.4712265111938</v>
       </c>
       <c r="N12" t="n">
-        <v>574.2787651183537</v>
+        <v>574.2787651183536</v>
       </c>
       <c r="O12" t="n">
-        <v>525.3528756197462</v>
+        <v>525.3528756197461</v>
       </c>
       <c r="P12" t="n">
-        <v>421.6419986125042</v>
+        <v>421.6419986125041</v>
       </c>
       <c r="Q12" t="n">
-        <v>281.8565098906317</v>
+        <v>281.8565098906316</v>
       </c>
       <c r="R12" t="n">
         <v>137.0932089751162</v>
       </c>
       <c r="S12" t="n">
-        <v>41.0136860701905</v>
+        <v>41.01368607019049</v>
       </c>
       <c r="T12" t="n">
-        <v>8.900018299528943</v>
+        <v>8.900018299528941</v>
       </c>
       <c r="U12" t="n">
         <v>0.1452668928105922</v>
@@ -31914,22 +31914,22 @@
         <v>16.45850081299287</v>
       </c>
       <c r="I13" t="n">
-        <v>55.66944855764867</v>
+        <v>55.66944855764866</v>
       </c>
       <c r="J13" t="n">
         <v>130.8770560558747</v>
       </c>
       <c r="K13" t="n">
-        <v>215.0712069427901</v>
+        <v>215.07120694279</v>
       </c>
       <c r="L13" t="n">
         <v>275.2170984618459</v>
       </c>
       <c r="M13" t="n">
-        <v>290.1778420433905</v>
+        <v>290.1778420433904</v>
       </c>
       <c r="N13" t="n">
-        <v>283.2780615389663</v>
+        <v>283.2780615389662</v>
       </c>
       <c r="O13" t="n">
         <v>261.6531397141238</v>
@@ -31941,13 +31941,13 @@
         <v>155.0094590884225</v>
       </c>
       <c r="R13" t="n">
-        <v>83.23491310947104</v>
+        <v>83.23491310947101</v>
       </c>
       <c r="S13" t="n">
-        <v>32.26068104141851</v>
+        <v>32.2606810414185</v>
       </c>
       <c r="T13" t="n">
-        <v>7.909504480681639</v>
+        <v>7.909504480681637</v>
       </c>
       <c r="U13" t="n">
         <v>0.1009723976257232</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.126845062089852</v>
+        <v>4.126845062089851</v>
       </c>
       <c r="H14" t="n">
-        <v>42.2640519921277</v>
+        <v>42.26405199212769</v>
       </c>
       <c r="I14" t="n">
         <v>159.1001942562191</v>
@@ -31999,31 +31999,31 @@
         <v>350.2608160885488</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9501675668124</v>
+        <v>524.9501675668123</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2471021357447</v>
+        <v>651.2471021357446</v>
       </c>
       <c r="M14" t="n">
-        <v>724.6378830086852</v>
+        <v>724.637883008685</v>
       </c>
       <c r="N14" t="n">
-        <v>736.363281541348</v>
+        <v>736.3632815413479</v>
       </c>
       <c r="O14" t="n">
-        <v>695.326965955192</v>
+        <v>695.3269659551919</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4454784848486</v>
+        <v>593.4454784848485</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6528396987558</v>
+        <v>445.6528396987557</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2329311315019</v>
+        <v>259.2329311315018</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04048185237258</v>
+        <v>94.04048185237257</v>
       </c>
       <c r="T14" t="n">
         <v>18.06526425929833</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208056770721001</v>
+        <v>2.208056770721</v>
       </c>
       <c r="H15" t="n">
         <v>21.32517986459493</v>
       </c>
       <c r="I15" t="n">
-        <v>76.02300723754324</v>
+        <v>76.02300723754323</v>
       </c>
       <c r="J15" t="n">
         <v>208.6129425355311</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5527461738382</v>
+        <v>356.5527461738381</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4291685725577</v>
+        <v>479.4291685725576</v>
       </c>
       <c r="M15" t="n">
-        <v>559.4712265111939</v>
+        <v>559.4712265111938</v>
       </c>
       <c r="N15" t="n">
-        <v>574.2787651183537</v>
+        <v>574.2787651183536</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3528756197462</v>
+        <v>525.3528756197461</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6419986125042</v>
+        <v>421.6419986125041</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.8565098906317</v>
+        <v>281.8565098906316</v>
       </c>
       <c r="R15" t="n">
         <v>137.0932089751162</v>
       </c>
       <c r="S15" t="n">
-        <v>41.0136860701905</v>
+        <v>41.01368607019049</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900018299528943</v>
+        <v>8.900018299528941</v>
       </c>
       <c r="U15" t="n">
         <v>0.1452668928105922</v>
@@ -32151,22 +32151,22 @@
         <v>16.45850081299287</v>
       </c>
       <c r="I16" t="n">
-        <v>55.66944855764867</v>
+        <v>55.66944855764866</v>
       </c>
       <c r="J16" t="n">
         <v>130.8770560558747</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0712069427901</v>
+        <v>215.07120694279</v>
       </c>
       <c r="L16" t="n">
         <v>275.2170984618459</v>
       </c>
       <c r="M16" t="n">
-        <v>290.1778420433905</v>
+        <v>290.1778420433904</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2780615389663</v>
+        <v>283.2780615389662</v>
       </c>
       <c r="O16" t="n">
         <v>261.6531397141238</v>
@@ -32178,13 +32178,13 @@
         <v>155.0094590884225</v>
       </c>
       <c r="R16" t="n">
-        <v>83.23491310947104</v>
+        <v>83.23491310947101</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26068104141851</v>
+        <v>32.2606810414185</v>
       </c>
       <c r="T16" t="n">
-        <v>7.909504480681639</v>
+        <v>7.909504480681637</v>
       </c>
       <c r="U16" t="n">
         <v>0.1009723976257232</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.126845062089853</v>
+        <v>4.126845062089849</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26405199212771</v>
+        <v>42.26405199212768</v>
       </c>
       <c r="I17" t="n">
-        <v>159.1001942562192</v>
+        <v>159.1001942562191</v>
       </c>
       <c r="J17" t="n">
-        <v>350.2608160885489</v>
+        <v>350.2608160885486</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9501675668125</v>
+        <v>524.9501675668121</v>
       </c>
       <c r="L17" t="n">
-        <v>651.247102135745</v>
+        <v>651.2471021357444</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6378830086853</v>
+        <v>724.6378830086846</v>
       </c>
       <c r="N17" t="n">
-        <v>736.3632815413482</v>
+        <v>736.3632815413475</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3269659551921</v>
+        <v>695.3269659551916</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4454784848489</v>
+        <v>593.4454784848483</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.6528396987559</v>
+        <v>445.6528396987555</v>
       </c>
       <c r="R17" t="n">
-        <v>259.2329311315019</v>
+        <v>259.2329311315017</v>
       </c>
       <c r="S17" t="n">
-        <v>94.04048185237261</v>
+        <v>94.04048185237252</v>
       </c>
       <c r="T17" t="n">
-        <v>18.06526425929834</v>
+        <v>18.06526425929832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301476049671881</v>
+        <v>0.3301476049671878</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.208056770721002</v>
+        <v>2.208056770720999</v>
       </c>
       <c r="H18" t="n">
-        <v>21.32517986459494</v>
+        <v>21.32517986459492</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02300723754327</v>
+        <v>76.0230072375432</v>
       </c>
       <c r="J18" t="n">
-        <v>208.6129425355311</v>
+        <v>208.6129425355309</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5527461738382</v>
+        <v>356.5527461738379</v>
       </c>
       <c r="L18" t="n">
-        <v>479.4291685725578</v>
+        <v>479.4291685725574</v>
       </c>
       <c r="M18" t="n">
-        <v>559.471226511194</v>
+        <v>559.4712265111935</v>
       </c>
       <c r="N18" t="n">
-        <v>574.2787651183538</v>
+        <v>574.2787651183534</v>
       </c>
       <c r="O18" t="n">
-        <v>525.3528756197463</v>
+        <v>525.3528756197459</v>
       </c>
       <c r="P18" t="n">
-        <v>421.6419986125043</v>
+        <v>421.6419986125039</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8565098906317</v>
+        <v>281.8565098906315</v>
       </c>
       <c r="R18" t="n">
-        <v>137.0932089751163</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S18" t="n">
-        <v>41.0136860701905</v>
+        <v>41.01368607019047</v>
       </c>
       <c r="T18" t="n">
-        <v>8.900018299528945</v>
+        <v>8.900018299528938</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1452668928105923</v>
+        <v>0.1452668928105921</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851160623138257</v>
+        <v>1.851160623138255</v>
       </c>
       <c r="H19" t="n">
-        <v>16.45850081299288</v>
+        <v>16.45850081299286</v>
       </c>
       <c r="I19" t="n">
-        <v>55.66944855764869</v>
+        <v>55.66944855764864</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8770560558747</v>
+        <v>130.8770560558746</v>
       </c>
       <c r="K19" t="n">
-        <v>215.0712069427902</v>
+        <v>215.07120694279</v>
       </c>
       <c r="L19" t="n">
-        <v>275.217098461846</v>
+        <v>275.2170984618457</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1778420433905</v>
+        <v>290.1778420433902</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2780615389663</v>
+        <v>283.2780615389661</v>
       </c>
       <c r="O19" t="n">
-        <v>261.6531397141239</v>
+        <v>261.6531397141237</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8894630021032</v>
+        <v>223.889463002103</v>
       </c>
       <c r="Q19" t="n">
-        <v>155.0094590884226</v>
+        <v>155.0094590884224</v>
       </c>
       <c r="R19" t="n">
-        <v>83.23491310947105</v>
+        <v>83.23491310947098</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26068104141851</v>
+        <v>32.26068104141849</v>
       </c>
       <c r="T19" t="n">
-        <v>7.90950448068164</v>
+        <v>7.909504480681633</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1009723976257232</v>
+        <v>0.1009723976257231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.126845062089852</v>
+        <v>4.126845062089849</v>
       </c>
       <c r="H20" t="n">
-        <v>42.2640519921277</v>
+        <v>42.26405199212768</v>
       </c>
       <c r="I20" t="n">
         <v>159.1001942562191</v>
       </c>
       <c r="J20" t="n">
-        <v>350.2608160885488</v>
+        <v>350.2608160885486</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9501675668124</v>
+        <v>524.9501675668121</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2471021357447</v>
+        <v>651.2471021357444</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6378830086852</v>
+        <v>724.6378830086846</v>
       </c>
       <c r="N20" t="n">
-        <v>736.363281541348</v>
+        <v>736.3632815413475</v>
       </c>
       <c r="O20" t="n">
-        <v>695.326965955192</v>
+        <v>695.3269659551916</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4454784848486</v>
+        <v>593.4454784848483</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.6528396987558</v>
+        <v>445.6528396987555</v>
       </c>
       <c r="R20" t="n">
-        <v>259.2329311315019</v>
+        <v>259.2329311315017</v>
       </c>
       <c r="S20" t="n">
-        <v>94.04048185237258</v>
+        <v>94.04048185237252</v>
       </c>
       <c r="T20" t="n">
-        <v>18.06526425929833</v>
+        <v>18.06526425929832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.330147604967188</v>
+        <v>0.3301476049671878</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208056770721001</v>
+        <v>2.208056770720999</v>
       </c>
       <c r="H21" t="n">
-        <v>21.32517986459493</v>
+        <v>21.32517986459492</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02300723754324</v>
+        <v>76.0230072375432</v>
       </c>
       <c r="J21" t="n">
-        <v>208.6129425355311</v>
+        <v>208.6129425355309</v>
       </c>
       <c r="K21" t="n">
-        <v>356.5527461738382</v>
+        <v>356.5527461738379</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4291685725577</v>
+        <v>479.4291685725574</v>
       </c>
       <c r="M21" t="n">
-        <v>559.4712265111939</v>
+        <v>559.4712265111935</v>
       </c>
       <c r="N21" t="n">
-        <v>574.2787651183537</v>
+        <v>574.2787651183534</v>
       </c>
       <c r="O21" t="n">
-        <v>525.3528756197462</v>
+        <v>525.3528756197459</v>
       </c>
       <c r="P21" t="n">
-        <v>421.6419986125042</v>
+        <v>421.6419986125039</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8565098906317</v>
+        <v>281.8565098906315</v>
       </c>
       <c r="R21" t="n">
-        <v>137.0932089751162</v>
+        <v>137.0932089751161</v>
       </c>
       <c r="S21" t="n">
-        <v>41.0136860701905</v>
+        <v>41.01368607019047</v>
       </c>
       <c r="T21" t="n">
-        <v>8.900018299528943</v>
+        <v>8.900018299528938</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1452668928105922</v>
+        <v>0.1452668928105921</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851160623138256</v>
+        <v>1.851160623138255</v>
       </c>
       <c r="H22" t="n">
-        <v>16.45850081299287</v>
+        <v>16.45850081299286</v>
       </c>
       <c r="I22" t="n">
-        <v>55.66944855764867</v>
+        <v>55.66944855764864</v>
       </c>
       <c r="J22" t="n">
-        <v>130.8770560558747</v>
+        <v>130.8770560558746</v>
       </c>
       <c r="K22" t="n">
-        <v>215.0712069427901</v>
+        <v>215.07120694279</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2170984618459</v>
+        <v>275.2170984618457</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1778420433905</v>
+        <v>290.1778420433902</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2780615389663</v>
+        <v>283.2780615389661</v>
       </c>
       <c r="O22" t="n">
-        <v>261.6531397141238</v>
+        <v>261.6531397141237</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8894630021032</v>
+        <v>223.889463002103</v>
       </c>
       <c r="Q22" t="n">
-        <v>155.0094590884225</v>
+        <v>155.0094590884224</v>
       </c>
       <c r="R22" t="n">
-        <v>83.23491310947104</v>
+        <v>83.23491310947098</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26068104141851</v>
+        <v>32.26068104141849</v>
       </c>
       <c r="T22" t="n">
-        <v>7.909504480681639</v>
+        <v>7.909504480681633</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1009723976257232</v>
+        <v>0.1009723976257231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2149115618626</v>
+        <v>169.2149115618625</v>
       </c>
       <c r="K11" t="n">
-        <v>304.8603165218319</v>
+        <v>304.8603165218317</v>
       </c>
       <c r="L11" t="n">
-        <v>415.4806871657575</v>
+        <v>415.4806871657574</v>
       </c>
       <c r="M11" t="n">
-        <v>494.2916497814125</v>
+        <v>494.2916497814123</v>
       </c>
       <c r="N11" t="n">
-        <v>506.9502179447571</v>
+        <v>506.950217944757</v>
       </c>
       <c r="O11" t="n">
-        <v>465.2287545335053</v>
+        <v>465.2287545335051</v>
       </c>
       <c r="P11" t="n">
-        <v>362.2124827295791</v>
+        <v>362.212482729579</v>
       </c>
       <c r="Q11" t="n">
-        <v>223.3471498243063</v>
+        <v>223.3471498243062</v>
       </c>
       <c r="R11" t="n">
-        <v>43.64739331736973</v>
+        <v>43.64739331736968</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.7753158688644</v>
+        <v>81.77531586886437</v>
       </c>
       <c r="K12" t="n">
-        <v>218.7113071994792</v>
+        <v>218.7113071994791</v>
       </c>
       <c r="L12" t="n">
-        <v>340.8747887926835</v>
+        <v>340.8747887926834</v>
       </c>
       <c r="M12" t="n">
-        <v>417.3371925891756</v>
+        <v>417.3371925891755</v>
       </c>
       <c r="N12" t="n">
-        <v>442.9370530350204</v>
+        <v>442.9370530350203</v>
       </c>
       <c r="O12" t="n">
-        <v>382.7566311753018</v>
+        <v>382.7566311753017</v>
       </c>
       <c r="P12" t="n">
         <v>287.6675911981739</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.8747358046102</v>
+        <v>141.8747358046101</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88185795365725</v>
+        <v>82.88185795365729</v>
       </c>
       <c r="K13" t="n">
-        <v>238.1656971313625</v>
+        <v>238.1656971313626</v>
       </c>
       <c r="L13" t="n">
         <v>348.1711057366174</v>
       </c>
       <c r="M13" t="n">
-        <v>375.1257010196863</v>
+        <v>375.1257010196864</v>
       </c>
       <c r="N13" t="n">
         <v>372.7742159326502</v>
       </c>
       <c r="O13" t="n">
-        <v>331.6022496426188</v>
+        <v>331.6022496426189</v>
       </c>
       <c r="P13" t="n">
         <v>266.532004281452</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2149115618626</v>
+        <v>169.2149115618625</v>
       </c>
       <c r="K14" t="n">
-        <v>304.8603165218319</v>
+        <v>304.8603165218317</v>
       </c>
       <c r="L14" t="n">
-        <v>415.4806871657575</v>
+        <v>415.4806871657574</v>
       </c>
       <c r="M14" t="n">
-        <v>494.2916497814125</v>
+        <v>494.2916497814123</v>
       </c>
       <c r="N14" t="n">
-        <v>506.9502179447571</v>
+        <v>506.950217944757</v>
       </c>
       <c r="O14" t="n">
-        <v>465.2287545335053</v>
+        <v>465.2287545335051</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2124827295791</v>
+        <v>362.212482729579</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3471498243063</v>
+        <v>223.3471498243062</v>
       </c>
       <c r="R14" t="n">
-        <v>43.64739331736973</v>
+        <v>43.64739331736968</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.7753158688644</v>
+        <v>81.77531586886437</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7113071994792</v>
+        <v>218.7113071994791</v>
       </c>
       <c r="L15" t="n">
-        <v>340.8747887926835</v>
+        <v>340.8747887926834</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3371925891756</v>
+        <v>417.3371925891755</v>
       </c>
       <c r="N15" t="n">
-        <v>442.9370530350204</v>
+        <v>442.9370530350203</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7566311753018</v>
+        <v>382.7566311753017</v>
       </c>
       <c r="P15" t="n">
         <v>287.6675911981739</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8747358046102</v>
+        <v>141.8747358046101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88185795365725</v>
+        <v>82.88185795365729</v>
       </c>
       <c r="K16" t="n">
-        <v>238.1656971313625</v>
+        <v>238.1656971313626</v>
       </c>
       <c r="L16" t="n">
-        <v>348.1711057366173</v>
+        <v>348.1711057366174</v>
       </c>
       <c r="M16" t="n">
-        <v>375.1257010196863</v>
+        <v>375.1257010196864</v>
       </c>
       <c r="N16" t="n">
         <v>372.7742159326502</v>
       </c>
       <c r="O16" t="n">
-        <v>331.6022496426188</v>
+        <v>331.6022496426189</v>
       </c>
       <c r="P16" t="n">
         <v>266.532004281452</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2149115618627</v>
+        <v>169.2149115618623</v>
       </c>
       <c r="K17" t="n">
-        <v>304.860316521832</v>
+        <v>304.8603165218315</v>
       </c>
       <c r="L17" t="n">
-        <v>415.4806871657577</v>
+        <v>415.4806871657572</v>
       </c>
       <c r="M17" t="n">
-        <v>494.2916497814126</v>
+        <v>494.2916497814119</v>
       </c>
       <c r="N17" t="n">
-        <v>506.9502179447573</v>
+        <v>506.9502179447566</v>
       </c>
       <c r="O17" t="n">
-        <v>465.2287545335054</v>
+        <v>465.2287545335048</v>
       </c>
       <c r="P17" t="n">
-        <v>362.2124827295793</v>
+        <v>362.2124827295788</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.3471498243064</v>
+        <v>223.347149824306</v>
       </c>
       <c r="R17" t="n">
-        <v>43.64739331736979</v>
+        <v>43.64739331736956</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.77531586886445</v>
+        <v>81.77531586886425</v>
       </c>
       <c r="K18" t="n">
-        <v>218.7113071994792</v>
+        <v>218.7113071994789</v>
       </c>
       <c r="L18" t="n">
-        <v>340.8747887926837</v>
+        <v>340.8747887926833</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3371925891757</v>
+        <v>417.3371925891752</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9370530350205</v>
+        <v>442.9370530350201</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7566311753019</v>
+        <v>382.7566311753014</v>
       </c>
       <c r="P18" t="n">
-        <v>287.667591198174</v>
+        <v>287.6675911981736</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.8747358046102</v>
+        <v>141.8747358046099</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.2207532495265</v>
+        <v>96.22075324952638</v>
       </c>
       <c r="K19" t="n">
-        <v>178.3970674053027</v>
+        <v>178.3970674053024</v>
       </c>
       <c r="L19" t="n">
-        <v>232.6715408136556</v>
+        <v>232.6715408136553</v>
       </c>
       <c r="M19" t="n">
-        <v>243.5911767288333</v>
+        <v>282.1273622991875</v>
       </c>
       <c r="N19" t="n">
-        <v>286.4678212771336</v>
+        <v>247.9316357067808</v>
       </c>
       <c r="O19" t="n">
-        <v>215.535719895329</v>
+        <v>215.5357198953287</v>
       </c>
       <c r="P19" t="n">
-        <v>178.5005775860035</v>
+        <v>178.5005775860033</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.84357609202461</v>
+        <v>95.84357609202446</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.2149115618626</v>
+        <v>169.2149115618623</v>
       </c>
       <c r="K20" t="n">
-        <v>304.8603165218319</v>
+        <v>304.8603165218315</v>
       </c>
       <c r="L20" t="n">
-        <v>415.4806871657575</v>
+        <v>415.4806871657572</v>
       </c>
       <c r="M20" t="n">
-        <v>494.2916497814125</v>
+        <v>494.2916497814119</v>
       </c>
       <c r="N20" t="n">
-        <v>506.9502179447571</v>
+        <v>506.9502179447566</v>
       </c>
       <c r="O20" t="n">
-        <v>465.2287545335053</v>
+        <v>465.2287545335048</v>
       </c>
       <c r="P20" t="n">
-        <v>362.2124827295791</v>
+        <v>362.2124827295788</v>
       </c>
       <c r="Q20" t="n">
-        <v>223.3471498243063</v>
+        <v>223.347149824306</v>
       </c>
       <c r="R20" t="n">
-        <v>43.64739331736973</v>
+        <v>43.64739331736956</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.7753158688644</v>
+        <v>81.77531586886425</v>
       </c>
       <c r="K21" t="n">
-        <v>218.7113071994792</v>
+        <v>218.7113071994789</v>
       </c>
       <c r="L21" t="n">
-        <v>340.8747887926835</v>
+        <v>340.8747887926833</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3371925891756</v>
+        <v>417.3371925891752</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9370530350204</v>
+        <v>442.9370530350201</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7566311753018</v>
+        <v>382.7566311753014</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6675911981739</v>
+        <v>287.6675911981736</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.8747358046102</v>
+        <v>141.8747358046099</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>129.8569945722498</v>
+        <v>96.22075324952638</v>
       </c>
       <c r="K22" t="n">
-        <v>178.3970674053026</v>
+        <v>178.3970674053024</v>
       </c>
       <c r="L22" t="n">
-        <v>232.6715408136555</v>
+        <v>232.6715408136553</v>
       </c>
       <c r="M22" t="n">
-        <v>243.5911767288333</v>
+        <v>243.591176728833</v>
       </c>
       <c r="N22" t="n">
-        <v>247.9316357067809</v>
+        <v>286.4678212771352</v>
       </c>
       <c r="O22" t="n">
-        <v>215.5357198953289</v>
+        <v>215.5357198953287</v>
       </c>
       <c r="P22" t="n">
-        <v>178.5005775860035</v>
+        <v>178.5005775860033</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.7435203396541</v>
+        <v>95.84357609202446</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>327.1522502488795</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>135.971143987383</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.2812939233907</v>
+        <v>104.2812939233908</v>
       </c>
       <c r="K25" t="n">
         <v>191.6430118327149</v>
       </c>
       <c r="L25" t="n">
-        <v>166.1984757226438</v>
+        <v>249.6217892616916</v>
       </c>
       <c r="M25" t="n">
-        <v>261.462837117086</v>
+        <v>261.4628371170861</v>
       </c>
       <c r="N25" t="n">
-        <v>265.3783479561261</v>
+        <v>265.3783479561262</v>
       </c>
       <c r="O25" t="n">
-        <v>231.6505824898051</v>
+        <v>231.6505824898052</v>
       </c>
       <c r="P25" t="n">
-        <v>192.2896264641171</v>
+        <v>192.2896264641172</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.39039879319</v>
+        <v>18.56011929113963</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.406965963000602</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666607</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="J26" t="n">
-        <v>406.8587527593789</v>
+        <v>237.7621375873051</v>
       </c>
       <c r="K26" t="n">
-        <v>384.1664231739931</v>
+        <v>384.1664231739929</v>
       </c>
       <c r="L26" t="n">
-        <v>563.9264894122449</v>
+        <v>502.5652510109245</v>
       </c>
       <c r="M26" t="n">
-        <v>585.8962524488193</v>
+        <v>585.896252448819</v>
       </c>
       <c r="N26" t="n">
-        <v>599.276972031504</v>
+        <v>599.2769720315039</v>
       </c>
       <c r="O26" t="n">
-        <v>555.0281375068117</v>
+        <v>851.2024109531894</v>
       </c>
       <c r="P26" t="n">
-        <v>445.7371228379644</v>
+        <v>445.7371228379642</v>
       </c>
       <c r="Q26" t="n">
-        <v>297.7694414223121</v>
+        <v>297.769441422312</v>
       </c>
       <c r="R26" t="n">
-        <v>172.3047550337998</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165843</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36844,16 +36844,16 @@
         <v>599.2769720315039</v>
       </c>
       <c r="O29" t="n">
-        <v>785.4859910802064</v>
+        <v>555.0281375068116</v>
       </c>
       <c r="P29" t="n">
-        <v>445.7371228379642</v>
+        <v>741.9113962843413</v>
       </c>
       <c r="Q29" t="n">
         <v>297.769441422312</v>
       </c>
       <c r="R29" t="n">
-        <v>172.3047550337997</v>
+        <v>106.5883351608173</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,10 +37069,10 @@
         <v>237.762137587305</v>
       </c>
       <c r="K32" t="n">
-        <v>384.1664231739929</v>
+        <v>468.0257059604657</v>
       </c>
       <c r="L32" t="n">
-        <v>520.7081139244151</v>
+        <v>502.5652510109244</v>
       </c>
       <c r="M32" t="n">
         <v>585.896252448819</v>
@@ -37081,7 +37081,7 @@
         <v>599.2769720315039</v>
       </c>
       <c r="O32" t="n">
-        <v>555.0281375068115</v>
+        <v>555.0281375068116</v>
       </c>
       <c r="P32" t="n">
         <v>445.7371228379641</v>
@@ -37090,7 +37090,7 @@
         <v>510.0844320822166</v>
       </c>
       <c r="R32" t="n">
-        <v>172.3047550337997</v>
+        <v>106.5883351608172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165998</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412322</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266883</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>184.3848942618847</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
@@ -37473,19 +37473,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.37971366430192</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057649</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>250.6999626455066</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P40" t="n">
-        <v>176.2789413352296</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193738</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359774</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K43" t="n">
         <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510722</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.37971366430284</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057535</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M46" t="n">
-        <v>245.4521519881986</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>177.611241153498</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057535</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
